--- a/Sample/Documentation/システム開発_担当者署名及び開発構造選定.xlsx
+++ b/Sample/Documentation/システム開発_担当者署名及び開発構造選定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devellop\BackBaseProxy\Sample\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DBB417-EF50-4290-978F-3F7B037891F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98DAC9B3-20D4-4AB4-9A9C-BD48821C581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="495" windowWidth="23805" windowHeight="14985" xr2:uid="{A8A09CC4-D34A-4AC6-847C-AD27C3AA6BFB}"/>
+    <workbookView xWindow="1050" yWindow="510" windowWidth="25305" windowHeight="14985" activeTab="1" xr2:uid="{A8A09CC4-D34A-4AC6-847C-AD27C3AA6BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルシステム_見積用スキルセット目安一覧" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="121">
   <si>
     <t>画面関連チーム</t>
     <rPh sb="0" eb="2">
@@ -1261,12 +1261,497 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>サーバーサイド関連</t>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAU10万以上のシステム開発構成及びサーバーサイドの構成を実施してくれること。また、サーｂ－予算について口頭で説明をしていただけること（鷹重、福井）</t>
+    <rPh sb="5" eb="8">
+      <t>マンイジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>カイハツコウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウトウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>タカジュウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>フクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宅内のみでビジネス売り上げ出ない場合は、以下のフォーマットを送信してください。</t>
+    <rPh sb="0" eb="2">
+      <t>タクナイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームベーシックエンジニア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宅内でストレス解消やゲームから、夢開発関連をしてくれる技術者</t>
+    <rPh sb="0" eb="2">
+      <t>タクナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="21">
+      <t>ユメカイハツカンレン</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ギジュツシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人で、最初の開発と必要な素材関連を相談してもらえること。
+基本フォーマットのシートを一人で完結すること</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ソザイカンレン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事分担</t>
+    <rPh sb="0" eb="4">
+      <t>カジブンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相談をして、隋州で比率を変えたり支援アプリを作ってもらえること</t>
+    <rPh sb="0" eb="2">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ズイシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宅内ルール</t>
+    <rPh sb="0" eb="2">
+      <t>タクナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パートナーの体に合わせて、
+子供が０人や各種財政が軌道に乗るまで数年間お子さん０人が可能な方</t>
+    <rPh sb="6" eb="7">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ザイセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>スウネンカン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者製品販売事業やサンプルゲームなど
+システム開発以外の事業側面への興味があり、行動していること
+初期のマスターデータについては、暫定で１ステージ分などは作成して説明をしていただける程度にデータが興味ある方</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="3" eb="9">
+      <t>セイヒンハンバイジギョウ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>カイハツイガイ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ジギョウソクメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キョウミ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>キョウミ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAU10万以上のシステム開発構成及びサーバーサイドの構成を実施してくれること。また、サーバー予算について口頭で説明をしていただけること（井戸コミュニティでいそう...）
+AWSやサーバーの情報を渡したら、独力でセットアップしての報告をしてくれること</t>
+    <rPh sb="5" eb="8">
+      <t>マンイジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>カイハツコウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウトウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>イド</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ドクリョク</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+必須項目
+ゲーム側　ゲームエンジン問わず、スマホまたはPCで動くゲームをプロトタイプを一人で完結できる方
+詳細説明を事業主にしていただけるかた
+想定工程　画面設計、対象ゲームの動画から画面遷移を作っていただける方
+素材一覧やセーブデータ項目をバトルスチームオペレーションの提案をいただける方
+https://none-39596997.hubspotpagebuilder.com/news/xna%E3%81%8B%E3%82%89monogame%E3%81%B8%E7%A7%BB%E8%A1%8C%E3%81%97%E3%81%A6%E4%B8%80%E7%95%AA%E5%B0%8F%E3%81%95%E3%81%84%E3%82%B2%E3%83%BC%E3%83%A0%E3%82%92%E4%BD%9C%E6%88%90%E3%81%97%E3%81%BE%E3%81%97%E3%81%9F-simulatorlibrary-%E7%B7%A8-%E3%82%A4%E3%83%A1%E3%83%BC%E3%82%B8%E6%A6%82%E8%A6%81%E3%81%BE%E3%81%A7-%E7%B6%9A%E3%81%8D%E3%81%AF%E7%8F%BE%E5%9C%A8%E9%96%8B%E7%99%BA%E4%B8%AD%E3%81%AE%E4%BD%9C%E5%93%81%E3%81%A7-0?fbclid=IwAR1FWca1ytAJPw0Jl66rlfBPJUqNVflZsTc9HyqsbthxcfeVXShi8QPYmqU
+上記のような規模で、技術ブログを記載して構造や今後のワクワクする日常を提供してくれること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">＊夜１０時以降は、電話での申請がない限り、家の家事又は開発や話をしていただける方
+</t>
+    </r>
+    <rPh sb="1" eb="5">
+      <t>ヒッスコウモク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t>ショウサイセツメイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ジギョウヌシ</t>
+    </rPh>
+    <rPh sb="75" eb="79">
+      <t>ソウテイコウテイ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>ガメンセッケイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="95" eb="99">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="111" eb="115">
+      <t>ソザイイチラン</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="691" eb="693">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="697" eb="699">
+      <t>キボ</t>
+    </rPh>
+    <rPh sb="701" eb="703">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="707" eb="709">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="711" eb="713">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="714" eb="716">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="723" eb="725">
+      <t>ニチジョウ</t>
+    </rPh>
+    <rPh sb="726" eb="728">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="739" eb="740">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="742" eb="745">
+      <t>ジイコウ</t>
+    </rPh>
+    <rPh sb="747" eb="749">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="751" eb="753">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="756" eb="757">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="759" eb="760">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="761" eb="764">
+      <t>カジマタ</t>
+    </rPh>
+    <rPh sb="765" eb="767">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="768" eb="769">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="777" eb="778">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初の実行環境について、独力で完結して宅内及び事業主パートナーに相談して実施できること
+https://none-39596997.hubspotpagebuilder.com/%E3%82%B7%E3%83%A5%E3%82%BF%E3%82%A4%E3%83%B3%E3%82%B2%E3%83%BC%E3%83%88%E3%81%AB%E6%8C%91%E6%88%A6
+上記のようにアニメから計算式を作って「見たことのないオリジナルアクションなどで、商品にない楽しさをくれること」</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジッコウカンキョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドクリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タクナイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ジギョウヌシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="201" eb="204">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,13 +1766,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="18"/>
@@ -1329,6 +1807,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1344,7 +1830,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1404,6 +1890,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1414,6 +1911,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1423,9 +1953,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,9 +1960,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1447,18 +1971,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1468,41 +1980,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1847,341 +2344,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E915B-514D-4268-BB1B-0F4E5CCC03A2}">
   <dimension ref="B4:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="52.125" customWidth="1"/>
+    <col min="6" max="6" width="77.25" customWidth="1"/>
     <col min="7" max="7" width="42.375" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="2" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="93.75" customHeight="1">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="16" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="2:10" ht="84.75" customHeight="1">
-      <c r="B10" s="5" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="2:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="12" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="2:10" ht="99.75" customHeight="1">
-      <c r="B11" s="3" t="s">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="16" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="2:10" ht="80.25" customHeight="1">
-      <c r="B12" s="5" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="2:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="12" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="2:10" ht="86.25" customHeight="1">
-      <c r="B13" s="3" t="s">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="2:10" ht="105.75" customHeight="1">
-      <c r="B14" s="5" t="s">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="2" t="s">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="9" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="8" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="71.25" customHeight="1">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="16" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="5" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="14" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
+      <c r="G19" s="25"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="2:10" ht="88.5" customHeight="1">
-      <c r="B20" s="3" t="s">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="16" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="5" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="14" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="74.25" customHeight="1">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="16" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="5" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="14" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="2" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="28" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="39.75" customHeight="1">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="29" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="2:10" ht="61.5" customHeight="1">
-      <c r="B28" s="3" t="s">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="2:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="30" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
+      <c r="G28" s="27"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2200,13 +2697,13 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F9:I9"/>
@@ -2229,11 +2726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9DAC4E-E10C-4739-A487-10D6990074DB}">
   <dimension ref="B1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="F26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="52.125" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
@@ -2250,353 +2747,359 @@
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="S1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:20">
-      <c r="S2" s="19" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="S2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
-      <c r="S4" s="4" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="S4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
-      <c r="S5" s="4" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="S5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="75">
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="S6" s="4" t="s">
+    <row r="6" spans="2:20" ht="75" x14ac:dyDescent="0.4">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="S6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="150">
+    <row r="7" spans="2:20" ht="150" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="20" t="s">
+      <c r="S7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="25.5">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="2:20" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="N11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="30">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="2:20" ht="30" x14ac:dyDescent="0.4">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="5"/>
       <c r="N12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="30">
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="2:20" ht="30" x14ac:dyDescent="0.4">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="23" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="30">
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="2:20" ht="30" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="23" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
-      <c r="N15" s="4" t="s">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="N15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="25.5">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="2:20" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="30">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:20" ht="30" x14ac:dyDescent="0.4">
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="21" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="2:20" ht="30">
-      <c r="B18" s="22" t="s">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:20" ht="30" x14ac:dyDescent="0.4">
+      <c r="B18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="23" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="30">
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="2:20" ht="30" x14ac:dyDescent="0.4">
+      <c r="B19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="22" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="23" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
-      <c r="N20" s="4" t="s">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="N20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="25.5">
-      <c r="B21" s="24" t="s">
+    <row r="21" spans="2:20" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" ht="264">
-      <c r="B25" s="26" t="s">
+      <c r="J24" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="264" x14ac:dyDescent="0.4">
+      <c r="B25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="11" t="s">
         <v>93</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="N25" t="s">
         <v>68</v>
@@ -2605,111 +3108,175 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="2:20">
-      <c r="N27" s="19" t="s">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="N27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P27" s="19" t="s">
+      <c r="P27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="R27" s="19" t="s">
+      <c r="R27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="S27" s="19" t="s">
+      <c r="S27" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="T27" s="19" t="s">
+      <c r="T27" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="2:20">
-      <c r="N28" s="4" t="s">
+    <row r="28" spans="2:20" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="S28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="T28" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="2:20">
-      <c r="N29" s="4" t="s">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="N29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="T29" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:20">
-      <c r="N30" s="4" t="s">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="S30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="T30" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:20">
-      <c r="N31" s="4" t="s">
+    <row r="31" spans="2:20" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="B31" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:20">
-      <c r="N32" s="4" t="s">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="N32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P32" s="2" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Sample/Documentation/システム開発_担当者署名及び開発構造選定.xlsx
+++ b/Sample/Documentation/システム開発_担当者署名及び開発構造選定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devellop\BackBaseProxy\Sample\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98DAC9B3-20D4-4AB4-9A9C-BD48821C581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DB1069-31D5-4B28-94D9-CD3EBD74BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="510" windowWidth="25305" windowHeight="14985" activeTab="1" xr2:uid="{A8A09CC4-D34A-4AC6-847C-AD27C3AA6BFB}"/>
+    <workbookView xWindow="2730" yWindow="1215" windowWidth="25305" windowHeight="14985" activeTab="1" xr2:uid="{A8A09CC4-D34A-4AC6-847C-AD27C3AA6BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルシステム_見積用スキルセット目安一覧" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="133">
   <si>
     <t>画面関連チーム</t>
     <rPh sb="0" eb="2">
@@ -1743,6 +1743,418 @@
     </rPh>
     <rPh sb="235" eb="236">
       <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こじらせ関連の場合で、募集が始まったら以下のフォーマットを送信してください。</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ボシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こじらせ相棒</t>
+    <rPh sb="4" eb="6">
+      <t>アイボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部門構成</t>
+    <rPh sb="0" eb="2">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部門は相手によって複数パターンとなります、</t>
+    <rPh sb="0" eb="2">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部門例１</t>
+    <rPh sb="0" eb="2">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部門例２</t>
+    <rPh sb="0" eb="2">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部門例3</t>
+    <rPh sb="0" eb="3">
+      <t>ブモンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経歴内でトップレベルの案件を象徴する技術を使った開発でもによる事業提案をしていただきます
+例
+　会員50万人越えのサービスにおける複数サービス購入処理
+　商品追加及び単体テストの自動化を一人で担いながら
+　金融や業務フロー及び財政表の決済資料用の判断資料を用意して提案寝返る方
+　CEDECで発表された３年以内の最新技術デモを宅内で新規開発を実施して、利用方法を技術ブログを執筆をお願いできるかた。
+　事例の少ない技術で「製品を売り込む資料と実物」調達実施する方</t>
+    <rPh sb="0" eb="3">
+      <t>ケイレキナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウチョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ジギョウテイアン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>マンニンゴ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>コウニュウショリ</t>
+    </rPh>
+    <rPh sb="77" eb="81">
+      <t>ショウヒンツイカ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ニナ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キンユウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ザイセイ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="117" eb="121">
+      <t>ケッサイシリョウ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="123" eb="127">
+      <t>ハンダンシリョウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="132" eb="136">
+      <t>テイアンネガエ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="153" eb="156">
+      <t>ネンイナイ</t>
+    </rPh>
+    <rPh sb="157" eb="161">
+      <t>サイシンギジュツ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>タクナイ</t>
+    </rPh>
+    <rPh sb="167" eb="171">
+      <t>シンキカイハツ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="177" eb="181">
+      <t>リヨウホウホウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>シッピツ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>ジツブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Droneの実機アプリ及び組み立て
+ハロボットのオリジナルアプリを開発して、
+宅内でオリジナルデモを身内に実施していただける方。</t>
+    <rPh sb="6" eb="8">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>タクナイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ミウチ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初のPM資料を宅内で新規作成を実施後に、WBSを仮用意して、日付の調整などを生活と一緒に調整が可能な方</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タクナイ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジッシゴ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>カリヨウイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セイカツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lampのシステム構成を一人で、開発後に
+管理画面のUIなどを提案後にフィードバック
+の依頼を対応可能な方。
+部門スタッフの依頼者を性別だけで、上位優劣をつけないで仕様書についてDBやパラメータ整合が
+違っていれば粛々と対応可能なかた。</t>
+    <rPh sb="9" eb="11">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カイハツゴ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>カンリガメン</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>テイアンゴ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>タイオウカノウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>イライシャ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="72" eb="76">
+      <t>ジョウイユウレツ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>セイゴウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>シュクシュク</t>
+    </rPh>
+    <rPh sb="110" eb="114">
+      <t>タイオウカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECサイトを宅内オリジナルでの開発、フレームワーク選定、言語選定、サーバーのインフラ設定、DBセットアップを一貫して対応していただける方。
+ECサイトで販売する動画や小説及びゲームなどのプロトタイプを直接開発可能な方。</t>
+    <rPh sb="6" eb="8">
+      <t>タクナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センテイ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ゲンゴセンテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>イッカン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ショウセツ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="101" eb="107">
+      <t>チョクセツカイハツカノウ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1907,7 +2319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1944,14 +2356,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1960,15 +2381,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1986,20 +2398,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2356,33 +2765,33 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2397,12 +2806,12 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="21" t="s">
         <v>14</v>
       </c>
@@ -2411,12 +2820,12 @@
       <c r="I9" s="23"/>
     </row>
     <row r="10" spans="2:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,12 +2839,12 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="21" t="s">
         <v>14</v>
       </c>
@@ -2444,12 +2853,12 @@
       <c r="I11" s="23"/>
     </row>
     <row r="12" spans="2:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2463,12 +2872,12 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="21" t="s">
         <v>15</v>
       </c>
@@ -2477,12 +2886,12 @@
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2496,24 +2905,24 @@
       <c r="J14" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2528,12 +2937,12 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="21" t="s">
         <v>18</v>
       </c>
@@ -2542,12 +2951,12 @@
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="24" t="s">
         <v>101</v>
       </c>
@@ -2559,12 +2968,12 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="21" t="s">
         <v>19</v>
       </c>
@@ -2574,12 +2983,12 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="24" t="s">
         <v>101</v>
       </c>
@@ -2590,12 +2999,12 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="21" t="s">
         <v>20</v>
       </c>
@@ -2605,12 +3014,12 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="24" t="s">
         <v>101</v>
       </c>
@@ -2621,24 +3030,24 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="5" t="s">
         <v>7</v>
       </c>
@@ -2653,30 +3062,30 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="26" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="2:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="27" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="27"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
         <v>9</v>
@@ -2684,12 +3093,23 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:I22"/>
@@ -2699,23 +3119,12 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2724,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9DAC4E-E10C-4739-A487-10D6990074DB}">
-  <dimension ref="B1:T32"/>
+  <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2741,6 +3150,7 @@
     <col min="8" max="8" width="48.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="57.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.75" customWidth="1"/>
     <col min="14" max="14" width="43.875" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.25" bestFit="1" customWidth="1"/>
@@ -3069,7 +3479,7 @@
       <c r="I24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="12" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3098,7 +3508,7 @@
       <c r="I25" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="13" t="s">
         <v>107</v>
       </c>
       <c r="N25" t="s">
@@ -3246,7 +3656,7 @@
       <c r="I31" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="11" t="s">
         <v>118</v>
       </c>
       <c r="K31" s="3" t="s">
@@ -3271,6 +3681,75 @@
       </c>
       <c r="P32" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="384" x14ac:dyDescent="0.4">
+      <c r="B36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
